--- a/new_top_20.xlsx
+++ b/new_top_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:K441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>month_year</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>department_abbr</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -523,6 +528,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -567,6 +577,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -611,6 +626,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -655,6 +675,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -699,6 +724,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -743,6 +773,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -787,6 +822,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -831,6 +871,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -875,6 +920,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -919,6 +969,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -963,6 +1018,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1007,6 +1067,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ISAEDC</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1051,6 +1116,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1095,6 +1165,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1139,6 +1214,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1183,6 +1263,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1227,6 +1312,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1271,6 +1361,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1315,6 +1410,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1359,6 +1459,11 @@
           <t>4/2025</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1403,6 +1508,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1447,6 +1557,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1491,6 +1606,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1535,6 +1655,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1579,6 +1704,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1623,6 +1753,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1667,6 +1802,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1711,6 +1851,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1755,6 +1900,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1799,6 +1949,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1843,6 +1998,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1887,6 +2047,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1931,6 +2096,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1975,6 +2145,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2019,6 +2194,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2063,6 +2243,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2107,6 +2292,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2151,6 +2341,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2195,6 +2390,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2239,6 +2439,11 @@
           <t>3/2025</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2283,6 +2488,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2327,6 +2537,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2371,6 +2586,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2415,6 +2635,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2459,6 +2684,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2503,6 +2733,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2547,6 +2782,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2591,6 +2831,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2635,6 +2880,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2679,6 +2929,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2723,6 +2978,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2767,6 +3027,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2811,6 +3076,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2855,6 +3125,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2899,6 +3174,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2943,6 +3223,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2987,6 +3272,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3031,6 +3321,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3075,6 +3370,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3119,6 +3419,11 @@
           <t>2/2025</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3163,6 +3468,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3207,6 +3517,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3251,6 +3566,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3295,6 +3615,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3339,6 +3664,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3383,6 +3713,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3427,6 +3762,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3471,6 +3811,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3515,6 +3860,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3559,6 +3909,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3603,6 +3958,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3647,6 +4007,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3691,6 +4056,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3735,6 +4105,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3779,6 +4154,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3823,6 +4203,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3867,6 +4252,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3911,6 +4301,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3955,6 +4350,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3999,6 +4399,11 @@
           <t>1/2025</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4043,6 +4448,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4087,6 +4497,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4131,6 +4546,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4175,6 +4595,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4219,6 +4644,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4263,6 +4693,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4307,6 +4742,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PSCOC</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4351,6 +4791,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4395,6 +4840,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4439,6 +4889,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4483,6 +4938,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4527,6 +4987,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4571,6 +5036,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>PSCOC</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4615,6 +5085,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4659,6 +5134,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4703,6 +5183,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4747,6 +5232,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4791,6 +5281,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4835,6 +5330,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4879,6 +5379,11 @@
           <t>12/2024</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4923,6 +5428,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4967,6 +5477,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5011,6 +5526,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5055,6 +5575,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5099,6 +5624,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5143,6 +5673,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5187,6 +5722,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5231,6 +5771,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5275,6 +5820,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5319,6 +5869,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5363,6 +5918,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5407,6 +5967,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5451,6 +6016,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5495,6 +6065,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5539,6 +6114,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5583,6 +6163,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5627,6 +6212,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5671,6 +6261,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5715,6 +6310,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5759,6 +6359,11 @@
           <t>11/2024</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5803,6 +6408,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5847,6 +6457,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5891,6 +6506,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5935,6 +6555,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5979,6 +6604,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6023,6 +6653,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6067,6 +6702,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6111,6 +6751,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6155,6 +6800,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6199,6 +6849,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6243,6 +6898,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6287,6 +6947,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6331,6 +6996,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6375,6 +7045,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6419,6 +7094,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6463,6 +7143,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6507,6 +7192,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6551,6 +7241,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6595,6 +7290,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6639,6 +7339,11 @@
           <t>10/2024</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6683,6 +7388,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6727,6 +7437,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6771,6 +7486,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6815,6 +7535,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6859,6 +7584,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6903,6 +7633,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6947,6 +7682,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6991,6 +7731,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7035,6 +7780,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7079,6 +7829,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7123,6 +7878,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>PSCOC</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7167,6 +7927,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7211,6 +7976,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7255,6 +8025,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7299,6 +8074,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7343,6 +8123,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7387,6 +8172,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7431,6 +8221,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>SSC</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7475,6 +8270,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7519,6 +8319,11 @@
           <t>9/2024</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7563,6 +8368,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7607,6 +8417,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7651,6 +8466,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7695,6 +8515,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7739,6 +8564,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7783,6 +8613,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>AAAC</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7827,6 +8662,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7871,6 +8711,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7915,6 +8760,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7959,6 +8809,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8003,6 +8858,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8047,6 +8907,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8091,6 +8956,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8135,6 +9005,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8179,6 +9054,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8223,6 +9103,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8267,6 +9152,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -8311,6 +9201,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>OOTAGOC</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8355,6 +9250,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8399,6 +9299,11 @@
           <t>8/2024</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8443,6 +9348,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8487,6 +9397,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8531,6 +9446,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8575,6 +9495,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8619,6 +9544,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8663,6 +9593,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8707,6 +9642,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8751,6 +9691,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8795,6 +9740,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8839,6 +9789,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8883,6 +9838,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8927,6 +9887,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8971,6 +9936,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9015,6 +9985,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>OOTSOFIC</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9059,6 +10034,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9103,6 +10083,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9147,6 +10132,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>TSBOC</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -9191,6 +10181,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -9235,6 +10230,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -9279,6 +10279,11 @@
           <t>7/2024</t>
         </is>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -9323,6 +10328,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -9367,6 +10377,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -9411,6 +10426,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9455,6 +10475,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9499,6 +10524,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9543,6 +10573,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9587,6 +10622,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9631,6 +10671,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9675,6 +10720,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9719,6 +10769,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>PSAPC</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9763,6 +10818,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9807,6 +10867,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9851,6 +10916,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9895,6 +10965,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9939,6 +11014,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9983,6 +11063,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10027,6 +11112,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10071,6 +11161,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>PBOC</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -10115,6 +11210,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -10159,6 +11259,11 @@
           <t>6/2024</t>
         </is>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -10203,6 +11308,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10247,6 +11357,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10291,6 +11406,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10335,6 +11455,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -10379,6 +11504,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10423,6 +11553,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10467,6 +11602,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10511,6 +11651,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10555,6 +11700,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>OOTAGOC</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10599,6 +11749,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10643,6 +11798,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10687,6 +11847,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10731,6 +11896,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10775,6 +11945,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10819,6 +11994,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10863,6 +12043,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10907,6 +12092,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10951,6 +12141,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10995,6 +12190,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11039,6 +12239,11 @@
           <t>5/2024</t>
         </is>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -11083,6 +12288,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11127,6 +12337,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -11171,6 +12386,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -11215,6 +12435,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11259,6 +12484,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -11303,6 +12533,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11347,6 +12582,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11391,6 +12631,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -11435,6 +12680,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -11479,6 +12729,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11523,6 +12778,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11567,6 +12827,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11611,6 +12876,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11655,6 +12925,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11699,6 +12974,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>PSCOC</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11743,6 +13023,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11787,6 +13072,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11831,6 +13121,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11875,6 +13170,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11919,6 +13219,11 @@
           <t>4/2024</t>
         </is>
       </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11963,6 +13268,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12007,6 +13317,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12051,6 +13366,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12095,6 +13415,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12139,6 +13464,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12183,6 +13513,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12227,6 +13562,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12271,6 +13611,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -12315,6 +13660,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -12359,6 +13709,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -12403,6 +13758,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -12447,6 +13807,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -12491,6 +13856,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -12535,6 +13905,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -12579,6 +13954,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -12623,6 +14003,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12667,6 +14052,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>SSAHRCOC</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -12711,6 +14101,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12755,6 +14150,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -12799,6 +14199,11 @@
           <t>3/2024</t>
         </is>
       </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -12843,6 +14248,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -12887,6 +14297,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -12931,6 +14346,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -12975,6 +14395,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13019,6 +14444,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13063,6 +14493,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13107,6 +14542,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -13151,6 +14591,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -13195,6 +14640,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13239,6 +14689,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13283,6 +14738,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -13327,6 +14787,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -13371,6 +14836,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -13415,6 +14885,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -13459,6 +14934,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13503,6 +14983,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -13547,6 +15032,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>PSCOC</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -13591,6 +15081,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -13635,6 +15130,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -13679,6 +15179,11 @@
           <t>2/2024</t>
         </is>
       </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -13723,6 +15228,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -13767,6 +15277,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -13811,6 +15326,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -13855,6 +15375,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -13899,6 +15424,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -13943,6 +15473,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -13987,6 +15522,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14031,6 +15571,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14075,6 +15620,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>GAC</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14119,6 +15669,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14163,6 +15718,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -14207,6 +15767,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -14251,6 +15816,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>OOTCOLOC</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -14295,6 +15865,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -14339,6 +15914,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>SSC</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -14383,6 +15963,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -14427,6 +16012,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>CSOC</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -14471,6 +16061,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>DFWAGE</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -14515,6 +16110,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -14559,6 +16159,11 @@
           <t>1/2024</t>
         </is>
       </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -14603,6 +16208,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -14647,6 +16257,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -14691,6 +16306,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -14735,6 +16355,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -14779,6 +16404,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -14823,6 +16453,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -14867,6 +16502,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -14911,6 +16551,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -14955,6 +16600,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -14999,6 +16649,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -15043,6 +16698,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -15087,6 +16747,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -15131,6 +16796,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -15175,6 +16845,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -15219,6 +16894,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -15263,6 +16943,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -15307,6 +16992,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -15351,6 +17041,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -15395,6 +17090,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -15439,6 +17139,11 @@
           <t>12/2023</t>
         </is>
       </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -15483,6 +17188,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -15527,6 +17237,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -15571,6 +17286,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -15615,6 +17335,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>AAAC</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -15659,6 +17384,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -15703,6 +17433,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -15747,6 +17482,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -15791,6 +17531,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -15835,6 +17580,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -15879,6 +17629,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -15923,6 +17678,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -15967,6 +17727,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -16011,6 +17776,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -16055,6 +17825,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -16099,6 +17874,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -16143,6 +17923,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -16187,6 +17972,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -16231,6 +18021,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -16275,6 +18070,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -16319,6 +18119,11 @@
           <t>11/2023</t>
         </is>
       </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -16363,6 +18168,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -16407,6 +18217,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -16451,6 +18266,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -16495,6 +18315,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -16539,6 +18364,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -16583,6 +18413,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -16627,6 +18462,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -16671,6 +18511,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -16715,6 +18560,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -16759,6 +18609,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -16803,6 +18658,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -16847,6 +18707,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -16891,6 +18756,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -16935,6 +18805,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -16979,6 +18854,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -17023,6 +18903,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -17067,6 +18952,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -17111,6 +19001,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -17155,6 +19050,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -17199,6 +19099,11 @@
           <t>10/2023</t>
         </is>
       </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -17243,6 +19148,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -17287,6 +19197,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -17331,6 +19246,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -17375,6 +19295,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -17419,6 +19344,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -17463,6 +19393,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -17507,6 +19442,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -17551,6 +19491,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -17595,6 +19540,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -17639,6 +19589,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -17683,6 +19638,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -17727,6 +19687,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -17771,6 +19736,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -17815,6 +19785,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -17859,6 +19834,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -17903,6 +19883,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -17947,6 +19932,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -17991,6 +19981,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>NRC</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -18035,6 +20030,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -18079,6 +20079,11 @@
           <t>9/2023</t>
         </is>
       </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -18123,6 +20128,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -18167,6 +20177,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -18211,6 +20226,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -18255,6 +20275,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -18299,6 +20324,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -18343,6 +20373,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -18387,6 +20422,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -18431,6 +20471,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -18475,6 +20520,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>DOJC</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -18519,6 +20569,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -18563,6 +20618,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -18607,6 +20667,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -18651,6 +20716,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -18695,6 +20765,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -18739,6 +20814,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -18783,6 +20863,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -18827,6 +20912,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -18871,6 +20961,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>NRCC</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -18915,6 +21010,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -18959,6 +21059,11 @@
           <t>8/2023</t>
         </is>
       </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -19003,6 +21108,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>CBSA</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -19047,6 +21157,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -19091,6 +21206,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>EASDC</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -19135,6 +21255,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -19179,6 +21304,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>IAAOC</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -19223,6 +21353,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -19267,6 +21402,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>CNSC</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -19311,6 +21451,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -19355,6 +21500,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>RCMP</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -19399,6 +21549,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -19443,6 +21598,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -19487,6 +21647,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>IRACC</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -19531,6 +21696,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>LAAC</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -19575,6 +21745,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -19619,6 +21794,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -19663,6 +21843,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -19707,6 +21892,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>CH</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -19751,6 +21941,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -19795,6 +21990,11 @@
           <t>7/2023</t>
         </is>
       </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>PHAOC</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -19837,6 +22037,11 @@
       <c r="J441" t="inlineStr">
         <is>
           <t>7/2023</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>TBOCS</t>
         </is>
       </c>
     </row>
